--- a/medicine/Psychotrope/Carbonade_flamande/Carbonade_flamande.xlsx
+++ b/medicine/Psychotrope/Carbonade_flamande/Carbonade_flamande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La carbonade flamande, ou carbonnade à la flamande, est une recette de cuisine traditionnelle des cuisine belge (Flandre belge) et cuisine du Nord-Pas-de-Calais (Flandre française), variante de carbonade à base de morceaux de viande (le plus souvent de bœuf) braisés à l'étouffée avec de la bière belge ou bière du Nord-Pas-de-Calais.
@@ -512,7 +524,9 @@
           <t>Origine et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « carbonade » est décliné du mot charbon, car ce plat est à l'origine anciennement traditionnellement « braisé » (mijoté) longuement sur des braises de charbon, au coin du feu.
 			avec stoemp
@@ -545,7 +559,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cuisson de la carbonade flamande consiste à braiser à l'étouffée des morceaux de viande de bœuf, de porc, ou de cheval, dans une cocotte avec de la bière et des oignons (par tradition, une bière belge brune, ou bière du Nord-Pas-de-Calais[réf. nécessaire]). Elle est parfois préparée avec du pain d'épice et un peu de cassonade (nom local de la vergeoise) ou de sirop de Liège (on parle alors de carbonnade à la liégeoise). Les frites qui accompagnent traditionnellement ce plat sont très souvent préparées dans de la graisse de bœuf.
 </t>
